--- a/monte_carlo_pi_results.xlsx
+++ b/monte_carlo_pi_results.xlsx
@@ -460,14 +460,14 @@
         <v>1000</v>
       </c>
       <c r="B2" t="n">
-        <v>3.132</v>
+        <v>3.1208</v>
       </c>
       <c r="C2" t="n">
-        <v>3.212</v>
+        <v>3.084</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[3.212, 3.196, 3.104, 3.128, 3.192, 3.116, 3.068, 3.092, 3.132, 3.08]</t>
+          <t>[3.084, 3.1, 3.224, 3.104, 3.112, 3.084, 3.076, 3.196, 3.12, 3.108]</t>
         </is>
       </c>
     </row>
@@ -476,14 +476,14 @@
         <v>10000</v>
       </c>
       <c r="B3" t="n">
-        <v>3.13796</v>
+        <v>3.13752</v>
       </c>
       <c r="C3" t="n">
-        <v>3.1244</v>
+        <v>3.1444</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[3.1244, 3.1284, 3.1196, 3.1248, 3.152, 3.1392, 3.1728, 3.1136, 3.1504, 3.1544]</t>
+          <t>[3.1444, 3.1472, 3.1504, 3.14, 3.1544, 3.1452, 3.1464, 3.1092, 3.1148, 3.1232]</t>
         </is>
       </c>
     </row>
@@ -492,14 +492,14 @@
         <v>100000</v>
       </c>
       <c r="B4" t="n">
-        <v>3.142604</v>
+        <v>3.13964</v>
       </c>
       <c r="C4" t="n">
-        <v>3.14344</v>
+        <v>3.1538</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[3.14344, 3.14228, 3.15252, 3.14028, 3.14588, 3.13932, 3.13832, 3.1402, 3.13892, 3.14488]</t>
+          <t>[3.1538, 3.13344, 3.14432, 3.14052, 3.13232, 3.14148, 3.12812, 3.14356, 3.13932, 3.13952]</t>
         </is>
       </c>
     </row>
@@ -508,14 +508,14 @@
         <v>1000000</v>
       </c>
       <c r="B5" t="n">
-        <v>3.1409132</v>
+        <v>3.1406824</v>
       </c>
       <c r="C5" t="n">
-        <v>3.140972</v>
+        <v>3.140852</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[3.140972, 3.139952, 3.143264, 3.14266, 3.140316, 3.139564, 3.142544, 3.139984, 3.139668, 3.140208]</t>
+          <t>[3.138416, 3.140852, 3.13988, 3.138028, 3.141968, 3.143996, 3.141104, 3.139688, 3.140852, 3.14204]</t>
         </is>
       </c>
     </row>
